--- a/clean_data/ERP.xlsx
+++ b/clean_data/ERP.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="384">
   <si>
     <t>ID</t>
   </si>
@@ -892,6 +892,84 @@
   </si>
   <si>
     <t>Consultancy</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>Jesuit Refugee Service</t>
+  </si>
+  <si>
+    <t>Norwegian Refugee Council</t>
+  </si>
+  <si>
+    <t>Cambridge Education</t>
+  </si>
+  <si>
+    <t>Food for the Hungry</t>
+  </si>
+  <si>
+    <t>RTI International -LARA</t>
+  </si>
+  <si>
+    <t>Save the Children</t>
+  </si>
+  <si>
+    <t>Save the Children / Consortium Management Unit</t>
+  </si>
+  <si>
+    <t>Finn Church Aid</t>
+  </si>
+  <si>
+    <t>ZOA Uganda</t>
+  </si>
+  <si>
+    <t>International Rescue Committee</t>
+  </si>
+  <si>
+    <t>Enabel</t>
+  </si>
+  <si>
+    <t>AAR Japan</t>
+  </si>
+  <si>
+    <t>UNFPA</t>
+  </si>
+  <si>
+    <t>Catholic Relief Services</t>
+  </si>
+  <si>
+    <t>Caritas Uganda</t>
+  </si>
+  <si>
+    <t>World Bank</t>
+  </si>
+  <si>
+    <t>The Behavioral Insights Team</t>
+  </si>
+  <si>
+    <t>Windle International Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Triangle Institute </t>
+  </si>
+  <si>
+    <t>Embassy of the Kingdom of the Netherlands</t>
+  </si>
+  <si>
+    <t>Plan International</t>
+  </si>
+  <si>
+    <t>Oxfam</t>
+  </si>
+  <si>
+    <t>Oxford Policy Management</t>
+  </si>
+  <si>
+    <t>UNICEF</t>
+  </si>
+  <si>
+    <t>UNHCR</t>
   </si>
   <si>
     <t>link</t>
@@ -1132,7 +1210,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CU95"/>
+  <dimension ref="A1:CV95"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -1432,6 +1510,9 @@
       </c>
       <c r="CU1" t="s">
         <v>293</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="2">
@@ -1668,6 +1749,9 @@
       <c r="CU2" t="s">
         <v>294</v>
       </c>
+      <c r="CV2" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1909,7 +1993,10 @@
         <v>290</v>
       </c>
       <c r="CU3" t="s">
-        <v>295</v>
+        <v>294</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="4">
@@ -2124,7 +2211,10 @@
         <v>290</v>
       </c>
       <c r="CU4" t="s">
-        <v>296</v>
+        <v>294</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="5">
@@ -2349,7 +2439,10 @@
         <v>290</v>
       </c>
       <c r="CU5" t="s">
-        <v>297</v>
+        <v>294</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="6">
@@ -2588,7 +2681,10 @@
         <v>290</v>
       </c>
       <c r="CU6" t="s">
-        <v>298</v>
+        <v>294</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="7">
@@ -2817,7 +2913,10 @@
         <v>290</v>
       </c>
       <c r="CU7" t="s">
-        <v>299</v>
+        <v>294</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="8">
@@ -3058,7 +3157,10 @@
         <v>290</v>
       </c>
       <c r="CU8" t="s">
-        <v>300</v>
+        <v>294</v>
+      </c>
+      <c r="CV8" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="9">
@@ -3299,7 +3401,10 @@
         <v>290</v>
       </c>
       <c r="CU9" t="s">
-        <v>301</v>
+        <v>294</v>
+      </c>
+      <c r="CV9" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="10">
@@ -3548,7 +3653,10 @@
         <v>290</v>
       </c>
       <c r="CU10" t="s">
-        <v>302</v>
+        <v>294</v>
+      </c>
+      <c r="CV10" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="11">
@@ -3793,7 +3901,10 @@
         <v>290</v>
       </c>
       <c r="CU11" t="s">
-        <v>303</v>
+        <v>294</v>
+      </c>
+      <c r="CV11" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="12">
@@ -4032,7 +4143,10 @@
         <v>290</v>
       </c>
       <c r="CU12" t="s">
-        <v>304</v>
+        <v>295</v>
+      </c>
+      <c r="CV12" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="13">
@@ -4268,10 +4382,13 @@
         <v>285</v>
       </c>
       <c r="CT13" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="CU13" t="s">
-        <v>305</v>
+        <v>296</v>
+      </c>
+      <c r="CV13" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="14">
@@ -4558,7 +4675,10 @@
         <v>290</v>
       </c>
       <c r="CU14" t="s">
-        <v>306</v>
+        <v>297</v>
+      </c>
+      <c r="CV14" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="15">
@@ -4833,7 +4953,10 @@
         <v>290</v>
       </c>
       <c r="CU15" t="s">
-        <v>307</v>
+        <v>297</v>
+      </c>
+      <c r="CV15" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="16">
@@ -5120,7 +5243,10 @@
         <v>286</v>
       </c>
       <c r="CU16" t="s">
-        <v>308</v>
+        <v>298</v>
+      </c>
+      <c r="CV16" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="17">
@@ -5403,7 +5529,10 @@
         <v>290</v>
       </c>
       <c r="CU17" t="s">
-        <v>309</v>
+        <v>299</v>
+      </c>
+      <c r="CV17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="18">
@@ -5702,7 +5831,10 @@
         <v>290</v>
       </c>
       <c r="CU18" t="s">
-        <v>310</v>
+        <v>299</v>
+      </c>
+      <c r="CV18" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="19">
@@ -5998,10 +6130,13 @@
         <v>285</v>
       </c>
       <c r="CT19" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="CU19" t="s">
-        <v>311</v>
+        <v>300</v>
+      </c>
+      <c r="CV19" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="20">
@@ -6291,10 +6426,13 @@
         <v>283</v>
       </c>
       <c r="CT20" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="CU20" t="s">
-        <v>312</v>
+        <v>300</v>
+      </c>
+      <c r="CV20" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="21">
@@ -6581,7 +6719,10 @@
         <v>290</v>
       </c>
       <c r="CU21" t="s">
-        <v>313</v>
+        <v>301</v>
+      </c>
+      <c r="CV21" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="22">
@@ -6865,10 +7006,13 @@
         <v>285</v>
       </c>
       <c r="CT22" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="CU22" t="s">
-        <v>314</v>
+        <v>302</v>
+      </c>
+      <c r="CV22" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="23">
@@ -7131,7 +7275,10 @@
         <v>290</v>
       </c>
       <c r="CU23" t="s">
-        <v>315</v>
+        <v>302</v>
+      </c>
+      <c r="CV23" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="24">
@@ -7414,7 +7561,10 @@
         <v>290</v>
       </c>
       <c r="CU24" t="s">
-        <v>316</v>
+        <v>302</v>
+      </c>
+      <c r="CV24" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="25">
@@ -7693,7 +7843,10 @@
         <v>290</v>
       </c>
       <c r="CU25" t="s">
-        <v>317</v>
+        <v>302</v>
+      </c>
+      <c r="CV25" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="26">
@@ -7920,7 +8073,10 @@
         <v>290</v>
       </c>
       <c r="CU26" t="s">
-        <v>318</v>
+        <v>303</v>
+      </c>
+      <c r="CV26" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="27">
@@ -8139,7 +8295,10 @@
         <v>286</v>
       </c>
       <c r="CU27" t="s">
-        <v>319</v>
+        <v>304</v>
+      </c>
+      <c r="CV27" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="28">
@@ -8349,10 +8508,13 @@
         <v>285</v>
       </c>
       <c r="CT28" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="CU28" t="s">
-        <v>320</v>
+        <v>304</v>
+      </c>
+      <c r="CV28" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="29">
@@ -8639,7 +8801,10 @@
         <v>290</v>
       </c>
       <c r="CU29" t="s">
-        <v>321</v>
+        <v>305</v>
+      </c>
+      <c r="CV29" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="30">
@@ -8926,7 +9091,10 @@
         <v>290</v>
       </c>
       <c r="CU30" t="s">
-        <v>322</v>
+        <v>306</v>
+      </c>
+      <c r="CV30" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="31">
@@ -9147,7 +9315,10 @@
         <v>290</v>
       </c>
       <c r="CU31" t="s">
-        <v>323</v>
+        <v>307</v>
+      </c>
+      <c r="CV31" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="32">
@@ -9364,7 +9535,10 @@
         <v>290</v>
       </c>
       <c r="CU32" t="s">
-        <v>324</v>
+        <v>307</v>
+      </c>
+      <c r="CV32" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="33">
@@ -9581,7 +9755,10 @@
         <v>290</v>
       </c>
       <c r="CU33" t="s">
-        <v>325</v>
+        <v>307</v>
+      </c>
+      <c r="CV33" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="34">
@@ -9866,7 +10043,10 @@
         <v>290</v>
       </c>
       <c r="CU34" t="s">
-        <v>326</v>
+        <v>308</v>
+      </c>
+      <c r="CV34" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="35">
@@ -10153,7 +10333,10 @@
         <v>290</v>
       </c>
       <c r="CU35" t="s">
-        <v>327</v>
+        <v>305</v>
+      </c>
+      <c r="CV35" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="36">
@@ -10442,7 +10625,10 @@
         <v>290</v>
       </c>
       <c r="CU36" t="s">
-        <v>328</v>
+        <v>305</v>
+      </c>
+      <c r="CV36" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="37">
@@ -10729,7 +10915,10 @@
         <v>290</v>
       </c>
       <c r="CU37" t="s">
-        <v>329</v>
+        <v>305</v>
+      </c>
+      <c r="CV37" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="38">
@@ -10960,7 +11149,10 @@
         <v>290</v>
       </c>
       <c r="CU38" t="s">
-        <v>330</v>
+        <v>305</v>
+      </c>
+      <c r="CV38" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="39">
@@ -11225,7 +11417,10 @@
         <v>290</v>
       </c>
       <c r="CU39" t="s">
-        <v>331</v>
+        <v>301</v>
+      </c>
+      <c r="CV39" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="40">
@@ -11486,7 +11681,10 @@
         <v>290</v>
       </c>
       <c r="CU40" t="s">
-        <v>332</v>
+        <v>301</v>
+      </c>
+      <c r="CV40" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="41">
@@ -11733,7 +11931,10 @@
         <v>290</v>
       </c>
       <c r="CU41" t="s">
-        <v>333</v>
+        <v>301</v>
+      </c>
+      <c r="CV41" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="42">
@@ -11976,7 +12177,10 @@
         <v>290</v>
       </c>
       <c r="CU42" t="s">
-        <v>334</v>
+        <v>301</v>
+      </c>
+      <c r="CV42" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="43">
@@ -12080,31 +12284,31 @@
         <v>0</v>
       </c>
       <c r="AH43" s="0">
-        <v>0.30000001192092896</v>
+        <v>0.34999999403953552</v>
       </c>
       <c r="AI43" s="0">
-        <v>0.41999998688697815</v>
+        <v>0.47999998927116394</v>
       </c>
       <c r="AJ43" s="0">
-        <v>0.15000000596046448</v>
+        <v>0.17000000178813934</v>
       </c>
       <c r="AK43" s="0">
-        <v>0.12999999523162842</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="0">
         <v>1</v>
       </c>
       <c r="AM43" s="0">
-        <v>2918174.25</v>
+        <v>3404536.5</v>
       </c>
       <c r="AN43" s="0">
-        <v>4085443.5</v>
+        <v>4669078.5</v>
       </c>
       <c r="AO43" s="0">
-        <v>1459087.125</v>
+        <v>1653632</v>
       </c>
       <c r="AP43" s="0">
-        <v>1264542.125</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="0">
         <v>486362.34375</v>
@@ -12275,7 +12479,10 @@
         <v>288</v>
       </c>
       <c r="CU43" t="s">
-        <v>335</v>
+        <v>309</v>
+      </c>
+      <c r="CV43" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="44">
@@ -12514,7 +12721,10 @@
         <v>290</v>
       </c>
       <c r="CU44" t="s">
-        <v>336</v>
+        <v>305</v>
+      </c>
+      <c r="CV44" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="45">
@@ -12757,7 +12967,10 @@
         <v>290</v>
       </c>
       <c r="CU45" t="s">
-        <v>337</v>
+        <v>301</v>
+      </c>
+      <c r="CV45" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="46">
@@ -13014,7 +13227,10 @@
         <v>290</v>
       </c>
       <c r="CU46" t="s">
-        <v>338</v>
+        <v>301</v>
+      </c>
+      <c r="CV46" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="47">
@@ -13271,7 +13487,10 @@
         <v>290</v>
       </c>
       <c r="CU47" t="s">
-        <v>339</v>
+        <v>301</v>
+      </c>
+      <c r="CV47" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="48">
@@ -13558,7 +13777,10 @@
         <v>291</v>
       </c>
       <c r="CU48" t="s">
-        <v>340</v>
+        <v>310</v>
+      </c>
+      <c r="CV48" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="49">
@@ -13819,7 +14041,10 @@
         <v>290</v>
       </c>
       <c r="CU49" t="s">
-        <v>341</v>
+        <v>311</v>
+      </c>
+      <c r="CV49" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="50">
@@ -14083,10 +14308,13 @@
         <v>286</v>
       </c>
       <c r="CT50" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="CU50" t="s">
-        <v>342</v>
+        <v>312</v>
+      </c>
+      <c r="CV50" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="51">
@@ -14361,7 +14589,10 @@
         <v>286</v>
       </c>
       <c r="CU51" t="s">
-        <v>343</v>
+        <v>313</v>
+      </c>
+      <c r="CV51" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="52">
@@ -14632,7 +14863,10 @@
         <v>290</v>
       </c>
       <c r="CU52" t="s">
-        <v>344</v>
+        <v>314</v>
+      </c>
+      <c r="CV52" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="53">
@@ -14902,10 +15136,13 @@
         <v>283</v>
       </c>
       <c r="CT53" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="CU53" t="s">
-        <v>345</v>
+        <v>309</v>
+      </c>
+      <c r="CV53" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="54">
@@ -15152,7 +15389,10 @@
         <v>290</v>
       </c>
       <c r="CU54" t="s">
-        <v>346</v>
+        <v>313</v>
+      </c>
+      <c r="CV54" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="55">
@@ -15431,7 +15671,10 @@
         <v>286</v>
       </c>
       <c r="CU55" t="s">
-        <v>347</v>
+        <v>315</v>
+      </c>
+      <c r="CV55" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="56">
@@ -15644,7 +15887,10 @@
         <v>292</v>
       </c>
       <c r="CU56" t="s">
-        <v>348</v>
+        <v>316</v>
+      </c>
+      <c r="CV56" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="57">
@@ -15901,7 +16147,10 @@
         <v>286</v>
       </c>
       <c r="CU57" t="s">
-        <v>349</v>
+        <v>317</v>
+      </c>
+      <c r="CV57" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="58">
@@ -16144,7 +16393,10 @@
         <v>286</v>
       </c>
       <c r="CU58" t="s">
-        <v>350</v>
+        <v>317</v>
+      </c>
+      <c r="CV58" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="59">
@@ -16237,21 +16489,29 @@
       </c>
       <c r="AF59" s="0"/>
       <c r="AG59" s="0"/>
-      <c r="AH59" s="0"/>
-      <c r="AI59" s="0"/>
-      <c r="AJ59" s="0"/>
-      <c r="AK59" s="0">
-        <v>1</v>
-      </c>
+      <c r="AH59" s="0">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="AI59" s="0">
+        <v>0.30000001192092896</v>
+      </c>
+      <c r="AJ59" s="0">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="AK59" s="0"/>
       <c r="AL59" s="0">
-        <v>0</v>
-      </c>
-      <c r="AM59" s="0"/>
-      <c r="AN59" s="0"/>
-      <c r="AO59" s="0"/>
-      <c r="AP59" s="0">
-        <v>3451917.75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AM59" s="0">
+        <v>2071150.75</v>
+      </c>
+      <c r="AN59" s="0">
+        <v>1035575.375</v>
+      </c>
+      <c r="AO59" s="0">
+        <v>345191.78125</v>
+      </c>
+      <c r="AP59" s="0"/>
       <c r="AQ59" s="0"/>
       <c r="AR59" s="0">
         <v>1380767.125</v>
@@ -16389,7 +16649,10 @@
         <v>286</v>
       </c>
       <c r="CU59" t="s">
-        <v>351</v>
+        <v>317</v>
+      </c>
+      <c r="CV59" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="60">
@@ -16626,7 +16889,10 @@
         <v>286</v>
       </c>
       <c r="CU60" t="s">
-        <v>352</v>
+        <v>317</v>
+      </c>
+      <c r="CV60" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="61">
@@ -16873,7 +17139,10 @@
         <v>286</v>
       </c>
       <c r="CU61" t="s">
-        <v>353</v>
+        <v>317</v>
+      </c>
+      <c r="CV61" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="62">
@@ -17162,7 +17431,10 @@
         <v>286</v>
       </c>
       <c r="CU62" t="s">
-        <v>354</v>
+        <v>318</v>
+      </c>
+      <c r="CV62" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="63">
@@ -17389,7 +17661,10 @@
         <v>286</v>
       </c>
       <c r="CU63" t="s">
-        <v>355</v>
+        <v>317</v>
+      </c>
+      <c r="CV63" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="64">
@@ -17606,7 +17881,10 @@
         <v>286</v>
       </c>
       <c r="CU64" t="s">
-        <v>356</v>
+        <v>317</v>
+      </c>
+      <c r="CV64" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="65">
@@ -17827,7 +18105,10 @@
         <v>286</v>
       </c>
       <c r="CU65" t="s">
-        <v>357</v>
+        <v>317</v>
+      </c>
+      <c r="CV65" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="66">
@@ -18000,6 +18281,9 @@
       <c r="CU66" t="s">
         <v>189</v>
       </c>
+      <c r="CV66" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -18171,6 +18455,9 @@
       <c r="CU67" t="s">
         <v>189</v>
       </c>
+      <c r="CV67" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
@@ -18342,6 +18629,9 @@
       <c r="CU68" t="s">
         <v>189</v>
       </c>
+      <c r="CV68" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
@@ -18513,6 +18803,9 @@
       <c r="CU69" t="s">
         <v>189</v>
       </c>
+      <c r="CV69" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
@@ -18684,6 +18977,9 @@
       <c r="CU70" t="s">
         <v>189</v>
       </c>
+      <c r="CV70" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
@@ -18855,6 +19151,9 @@
       <c r="CU71" t="s">
         <v>189</v>
       </c>
+      <c r="CV71" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
@@ -19024,6 +19323,9 @@
         <v>288</v>
       </c>
       <c r="CU72" t="s">
+        <v>189</v>
+      </c>
+      <c r="CV72" t="s">
         <v>189</v>
       </c>
     </row>
@@ -19197,6 +19499,9 @@
       <c r="CU73" t="s">
         <v>189</v>
       </c>
+      <c r="CV73" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
@@ -19368,6 +19673,9 @@
       <c r="CU74" t="s">
         <v>189</v>
       </c>
+      <c r="CV74" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
@@ -19537,6 +19845,9 @@
         <v>288</v>
       </c>
       <c r="CU75" t="s">
+        <v>189</v>
+      </c>
+      <c r="CV75" t="s">
         <v>189</v>
       </c>
     </row>
@@ -19708,6 +20019,9 @@
         <v>288</v>
       </c>
       <c r="CU76" t="s">
+        <v>189</v>
+      </c>
+      <c r="CV76" t="s">
         <v>189</v>
       </c>
     </row>
@@ -19881,6 +20195,9 @@
       <c r="CU77" t="s">
         <v>189</v>
       </c>
+      <c r="CV77" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
@@ -20052,6 +20369,9 @@
       <c r="CU78" t="s">
         <v>189</v>
       </c>
+      <c r="CV78" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
@@ -20223,6 +20543,9 @@
       <c r="CU79" t="s">
         <v>189</v>
       </c>
+      <c r="CV79" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
@@ -20394,6 +20717,9 @@
       <c r="CU80" t="s">
         <v>189</v>
       </c>
+      <c r="CV80" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
@@ -20565,6 +20891,9 @@
       <c r="CU81" t="s">
         <v>189</v>
       </c>
+      <c r="CV81" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
@@ -20736,6 +21065,9 @@
       <c r="CU82" t="s">
         <v>189</v>
       </c>
+      <c r="CV82" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
@@ -20907,6 +21239,9 @@
       <c r="CU83" t="s">
         <v>189</v>
       </c>
+      <c r="CV83" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
@@ -21078,6 +21413,9 @@
       <c r="CU84" t="s">
         <v>189</v>
       </c>
+      <c r="CV84" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
@@ -21249,6 +21587,9 @@
       <c r="CU85" t="s">
         <v>189</v>
       </c>
+      <c r="CV85" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
@@ -21420,6 +21761,9 @@
       <c r="CU86" t="s">
         <v>189</v>
       </c>
+      <c r="CV86" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
@@ -21589,6 +21933,9 @@
         <v>288</v>
       </c>
       <c r="CU87" t="s">
+        <v>189</v>
+      </c>
+      <c r="CV87" t="s">
         <v>189</v>
       </c>
     </row>
@@ -21762,6 +22109,9 @@
       <c r="CU88" t="s">
         <v>189</v>
       </c>
+      <c r="CV88" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
@@ -21931,6 +22281,9 @@
         <v>288</v>
       </c>
       <c r="CU89" t="s">
+        <v>189</v>
+      </c>
+      <c r="CV89" t="s">
         <v>189</v>
       </c>
     </row>
@@ -22104,6 +22457,9 @@
       <c r="CU90" t="s">
         <v>189</v>
       </c>
+      <c r="CV90" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
@@ -22275,6 +22631,9 @@
       <c r="CU91" t="s">
         <v>189</v>
       </c>
+      <c r="CV91" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
@@ -22446,6 +22805,9 @@
       <c r="CU92" t="s">
         <v>189</v>
       </c>
+      <c r="CV92" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
@@ -22617,6 +22979,9 @@
       <c r="CU93" t="s">
         <v>189</v>
       </c>
+      <c r="CV93" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
@@ -22788,6 +23153,9 @@
       <c r="CU94" t="s">
         <v>189</v>
       </c>
+      <c r="CV94" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
@@ -22959,6 +23327,9 @@
       <c r="CU95" t="s">
         <v>189</v>
       </c>
+      <c r="CV95" t="s">
+        <v>189</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
